--- a/output/10800554000127.xlsx
+++ b/output/10800554000127.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bico" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Bico" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,12 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Obs</t>
+          <t>Obs_relatorio</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Obs_sped</t>
         </is>
       </c>
     </row>
@@ -487,9 +492,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -514,9 +520,10 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -541,9 +548,10 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -568,9 +576,10 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -595,9 +604,10 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -622,9 +632,10 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -637,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +684,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Obs</t>
+          <t>Obs_relatorio</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Obs_sped</t>
         </is>
       </c>
     </row>
@@ -697,9 +713,10 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -721,9 +738,10 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -745,9 +763,10 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/10800554000127.xlsx
+++ b/output/10800554000127.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Bico" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bico" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,11 +490,7 @@
       <c r="G2" t="n">
         <v>25.034</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -518,11 +514,7 @@
       <c r="G3" t="n">
         <v>24.009</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -546,11 +538,7 @@
       <c r="G4" t="n">
         <v>7.347</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -574,11 +562,7 @@
       <c r="G5" t="n">
         <v>40.704</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -602,11 +586,7 @@
       <c r="G6" t="n">
         <v>60</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -630,11 +610,7 @@
       <c r="G7" t="n">
         <v>20</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -706,14 +682,14 @@
         <v>1135</v>
       </c>
       <c r="D2" t="n">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
         <v>10433</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(4056,00) e o relatório(200,00)!</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -738,7 +714,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(4056,00) e o relatório(4157,00)!</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -763,7 +739,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(4056,00) e o relatório(6333,00)!</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
